--- a/DATA_goal/Junction_Flooding_459.xlsx
+++ b/DATA_goal/Junction_Flooding_459.xlsx
@@ -443,11 +443,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -458,7 +458,7 @@
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,7 +468,7 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>44790.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44790.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44790.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.67</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44790.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.59</v>
+        <v>35.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.92</v>
+        <v>29.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.61</v>
+        <v>46.09</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.7</v>
+        <v>187.04</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.56</v>
+        <v>35.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.29</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.28</v>
+        <v>22.85</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.12</v>
+        <v>41.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_459.xlsx
+++ b/DATA_goal/Junction_Flooding_459.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44790.54861111111</v>
+        <v>45140.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
+        <v>6.858</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>3.629</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.538</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.452</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.195</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.364</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.727</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.701</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.538</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.732</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>8.518000000000001</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>2.17</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.59</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44790.55555555555</v>
+        <v>45140.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.16</v>
+        <v>15.051</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>12.305</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.852</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.79</v>
+        <v>33.459</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.22</v>
+        <v>28.184</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.18</v>
+        <v>12.651</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.02</v>
+        <v>42.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.54</v>
+        <v>19.275</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.16</v>
+        <v>8.927</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.22</v>
+        <v>13.611</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>15.022</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2</v>
+        <v>14.198</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>3.711</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.17</v>
+        <v>11.876</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.96</v>
+        <v>17.842</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5</v>
+        <v>9.853999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.148</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.72</v>
+        <v>181.145</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.12</v>
+        <v>34.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.049</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.79</v>
+        <v>23.079</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.13</v>
+        <v>13.398</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>1.704</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.35</v>
+        <v>22.168</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>10.088</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>9.935</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.76</v>
+        <v>9.726000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.08</v>
+        <v>15.245</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.51</v>
+        <v>38.956</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>6.474</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.52</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44790.5625</v>
+        <v>45140.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.99</v>
+        <v>4.242</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.77</v>
+        <v>3.857</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.379</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.05</v>
+        <v>9.773</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.94</v>
+        <v>8.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.51</v>
+        <v>3.868</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.43</v>
+        <v>18.655</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.17</v>
+        <v>5.911</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.05</v>
+        <v>2.876</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.69</v>
+        <v>4.377</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.45</v>
+        <v>5.007</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.48</v>
+        <v>4.161</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.023</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.45</v>
+        <v>3.381</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.84</v>
+        <v>5.524</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.99</v>
+        <v>2.885</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.046</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.012</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.73999999999999</v>
+        <v>49.711</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.39</v>
+        <v>10.767</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.78</v>
+        <v>3.165</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>7.113</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.04</v>
+        <v>4.475</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.531</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.4</v>
+        <v>9.061999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.97</v>
+        <v>3.051</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.19</v>
+        <v>3.382</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.22</v>
+        <v>2.699</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.86</v>
+        <v>4.865</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.84</v>
+        <v>17.378</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.36</v>
+        <v>1.953</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.41</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44790.56944444445</v>
+        <v>45140.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.88</v>
+        <v>2.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.35</v>
+        <v>2.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.87</v>
+        <v>5.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.18</v>
+        <v>5.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.54</v>
+        <v>2.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.09</v>
+        <v>11.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.5</v>
+        <v>3.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.98</v>
+        <v>2.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.26</v>
+        <v>3.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.61</v>
+        <v>2.46</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.1</v>
+        <v>0.58</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.44</v>
+        <v>1.96</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.22</v>
+        <v>3.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.55</v>
+        <v>1.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.04</v>
+        <v>26.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.62</v>
+        <v>6.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.99</v>
+        <v>1.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.29</v>
+        <v>4.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.86</v>
+        <v>2.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.32</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.85</v>
+        <v>5.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.91</v>
+        <v>2.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.08</v>
+        <v>2.98</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.19</v>
+        <v>10.13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.57</v>
+        <v>1.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44790.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.75</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_459.xlsx
+++ b/DATA_goal/Junction_Flooding_459.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45140.50694444445</v>
+        <v>44790.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45140.51388888889</v>
+        <v>44790.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.051</v>
+        <v>2.162</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.305</v>
+        <v>0.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.852</v>
+        <v>0.505</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.459</v>
+        <v>2.792</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.184</v>
+        <v>1.224</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.651</v>
+        <v>0.178</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>42.98</v>
+        <v>4.022</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.275</v>
+        <v>0.542</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.927</v>
+        <v>0.163</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.611</v>
+        <v>0.22</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.022</v>
+        <v>0.823</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.198</v>
+        <v>1.996</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.711</v>
+        <v>0.234</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.876</v>
+        <v>0.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.842</v>
+        <v>0.958</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.853999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.148</v>
+        <v>0.545</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.145</v>
+        <v>3.722</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>34.59</v>
+        <v>2.12</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.049</v>
+        <v>1.131</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.079</v>
+        <v>1.793</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.398</v>
+        <v>1.127</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.704</v>
+        <v>0.089</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.168</v>
+        <v>1.345</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.088</v>
+        <v>0.577</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.935</v>
+        <v>0.105</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.726000000000001</v>
+        <v>0.756</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.245</v>
+        <v>1.079</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.956</v>
+        <v>2.514</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.474</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.317</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45140.52083333334</v>
+        <v>44790.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.242</v>
+        <v>6.994</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.857</v>
+        <v>4.769</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.379</v>
+        <v>0.501</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.773</v>
+        <v>14.045</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.42</v>
+        <v>10.942</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.868</v>
+        <v>4.508</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.655</v>
+        <v>15.432</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.911</v>
+        <v>7.174</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.876</v>
+        <v>3.046</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.377</v>
+        <v>4.692</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.007</v>
+        <v>5.447</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.161</v>
+        <v>6.476</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.023</v>
+        <v>1.554</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.381</v>
+        <v>4.453</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.524</v>
+        <v>6.836</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.885</v>
+        <v>3.988</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.046</v>
+        <v>0.414</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.012</v>
+        <v>0.122</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.711</v>
+        <v>66.738</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.767</v>
+        <v>13.389</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.165</v>
+        <v>4.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.113</v>
+        <v>9.215</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.475</v>
+        <v>5.036</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.531</v>
+        <v>0.637</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.061999999999999</v>
+        <v>7.399</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.051</v>
+        <v>3.971</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.382</v>
+        <v>3.189</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.699</v>
+        <v>4.218</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.865</v>
+        <v>5.86</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.175</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.378</v>
+        <v>12.844</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.953</v>
+        <v>2.364</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.341</v>
+        <v>5.406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45140.52777777778</v>
+        <v>44790.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.45</v>
+        <v>16.878</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.35</v>
+        <v>12.352</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.756</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.77</v>
+        <v>35.874</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.02</v>
+        <v>29.176</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.32</v>
+        <v>12.543</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.02</v>
+        <v>46.092</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.58</v>
+        <v>19.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.75</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.69</v>
+        <v>12.979</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.14</v>
+        <v>14.256</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.46</v>
+        <v>15.607</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>4.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.96</v>
+        <v>12.435</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.31</v>
+        <v>18.222</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.72</v>
+        <v>10.551</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.414</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.85</v>
+        <v>187.042</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.42</v>
+        <v>35.624</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.84</v>
+        <v>11.988</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.21</v>
+        <v>24.287</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.78</v>
+        <v>12.862</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.32</v>
+        <v>1.674</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.28</v>
+        <v>22.849</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.83</v>
+        <v>10.414</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.13</v>
+        <v>8.911</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.55</v>
+        <v>10.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.98</v>
+        <v>15.083</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.13</v>
+        <v>41.192</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.17</v>
+        <v>6.571</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.6</v>
+        <v>14.579</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44790.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.66</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.78</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_459.xlsx
+++ b/DATA_goal/Junction_Flooding_459.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44790.54861111111</v>
+        <v>45140.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44790.55555555555</v>
+        <v>45140.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.162</v>
+        <v>15.051</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>12.305</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.505</v>
+        <v>0.852</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.792</v>
+        <v>33.459</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.224</v>
+        <v>28.184</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.178</v>
+        <v>12.651</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.022</v>
+        <v>42.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.542</v>
+        <v>19.275</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.163</v>
+        <v>8.927</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.22</v>
+        <v>13.611</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.823</v>
+        <v>15.022</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.996</v>
+        <v>14.198</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.234</v>
+        <v>3.711</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.166</v>
+        <v>11.876</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.958</v>
+        <v>17.842</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.504</v>
+        <v>9.853999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.545</v>
+        <v>0.148</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.722</v>
+        <v>181.145</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.12</v>
+        <v>34.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.131</v>
+        <v>11.049</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.793</v>
+        <v>23.079</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.127</v>
+        <v>13.398</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.089</v>
+        <v>1.704</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.345</v>
+        <v>22.168</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.577</v>
+        <v>10.088</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.105</v>
+        <v>9.935</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.756</v>
+        <v>9.726000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.079</v>
+        <v>15.245</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.514</v>
+        <v>38.956</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>6.474</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.517</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44790.5625</v>
+        <v>45140.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.994</v>
+        <v>4.242</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.769</v>
+        <v>3.857</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.501</v>
+        <v>0.379</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.045</v>
+        <v>9.773</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.942</v>
+        <v>8.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.508</v>
+        <v>3.868</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.432</v>
+        <v>18.655</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.174</v>
+        <v>5.911</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.046</v>
+        <v>2.876</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.692</v>
+        <v>4.377</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.447</v>
+        <v>5.007</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.476</v>
+        <v>4.161</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.554</v>
+        <v>1.023</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.453</v>
+        <v>3.381</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.836</v>
+        <v>5.524</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.988</v>
+        <v>2.885</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.414</v>
+        <v>0.046</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.122</v>
+        <v>0.012</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.738</v>
+        <v>49.711</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.389</v>
+        <v>10.767</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.776</v>
+        <v>3.165</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.215</v>
+        <v>7.113</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.036</v>
+        <v>4.475</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.637</v>
+        <v>0.531</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.399</v>
+        <v>9.061999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.971</v>
+        <v>3.051</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.189</v>
+        <v>3.382</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.218</v>
+        <v>2.699</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.86</v>
+        <v>4.865</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.844</v>
+        <v>17.378</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.364</v>
+        <v>1.953</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.406</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44790.56944444445</v>
+        <v>45140.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.878</v>
+        <v>2.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.352</v>
+        <v>2.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.756</v>
+        <v>0.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.874</v>
+        <v>5.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.176</v>
+        <v>5.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.543</v>
+        <v>2.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.092</v>
+        <v>11.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.5</v>
+        <v>3.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.635999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.979</v>
+        <v>2.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.256</v>
+        <v>3.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.607</v>
+        <v>2.46</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.1</v>
+        <v>0.58</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.435</v>
+        <v>1.96</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.222</v>
+        <v>3.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.551</v>
+        <v>1.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.414</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.415</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.042</v>
+        <v>26.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.624</v>
+        <v>6.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.988</v>
+        <v>1.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.287</v>
+        <v>4.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.862</v>
+        <v>2.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.674</v>
+        <v>0.32</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.849</v>
+        <v>5.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.414</v>
+        <v>1.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.911</v>
+        <v>2.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.083</v>
+        <v>2.98</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.192</v>
+        <v>10.13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.571</v>
+        <v>1.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.579</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44790.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.75</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
